--- a/33_transposed.xlsx
+++ b/33_transposed.xlsx
@@ -482,28 +482,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7118201754385964</v>
+        <v>0.7284933984445651</v>
       </c>
       <c r="C2" t="n">
-        <v>0.781197549285585</v>
+        <v>0.7749247151383614</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7958466720926026</v>
+        <v>0.7833466720926026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7958251944293723</v>
+        <v>0.8083037167661422</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7999703834328088</v>
+        <v>0.8041370500994756</v>
       </c>
       <c r="G2" t="n">
         <v>0.8062203834328088</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8020537167661421</v>
+        <v>0.8041585277627057</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7847048678397023</v>
+        <v>0.787083494819523</v>
       </c>
     </row>
     <row r="3">
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7657823599784385</v>
+        <v>0.7684445555552705</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7817435256812277</v>
+        <v>0.7818820973634837</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7928861320834152</v>
+        <v>0.7826037863448448</v>
       </c>
       <c r="E3" t="n">
-        <v>0.790093097154462</v>
+        <v>0.7930766155523165</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7894423014689197</v>
+        <v>0.7891550522648083</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7925028920870266</v>
+        <v>0.7926222176295641</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7899712465174064</v>
+        <v>0.7936979136998727</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7860602221386994</v>
+        <v>0.7859260340585943</v>
       </c>
     </row>
     <row r="4">
@@ -544,28 +544,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8430574400723654</v>
+        <v>0.8705563093622795</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9487109905020354</v>
+        <v>0.9367254635911353</v>
       </c>
       <c r="D4" t="n">
-        <v>0.954862053369516</v>
+        <v>0.9516960651289009</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9608322026232475</v>
+        <v>0.9789235639981909</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9698778833107191</v>
+        <v>0.9789235639981909</v>
       </c>
       <c r="G4" t="n">
         <v>0.9758932609678878</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9728629579375848</v>
+        <v>0.9698778833107191</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9465852555404792</v>
+        <v>0.9517994443367578</v>
       </c>
     </row>
     <row r="5">
@@ -575,28 +575,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8014238439349205</v>
+        <v>0.8160592958990062</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8570345601985103</v>
+        <v>0.8521126512484424</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8662194190569924</v>
+        <v>0.8584121281244549</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8669388359907313</v>
+        <v>0.8761672285569532</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8703482051827341</v>
+        <v>0.8737911726404317</v>
       </c>
       <c r="G5" t="n">
-        <v>0.87462807866881</v>
+        <v>0.8746346615071448</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8718694579791547</v>
+        <v>0.8728331804841872</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8583517715731217</v>
+        <v>0.8605729026372314</v>
       </c>
     </row>
   </sheetData>

--- a/33_transposed.xlsx
+++ b/33_transposed.xlsx
@@ -482,28 +482,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7284933984445651</v>
+        <v>0.7099561403508773</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7749247151383614</v>
+        <v>0.7895308826189185</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7833466720926026</v>
+        <v>0.7937848164224995</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8083037167661422</v>
+        <v>0.8062203834328088</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8041370500994756</v>
+        <v>0.8020532646048111</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8062203834328088</v>
+        <v>0.7999484536082473</v>
       </c>
       <c r="H2" t="n">
         <v>0.8041585277627057</v>
       </c>
       <c r="I2" t="n">
-        <v>0.787083494819523</v>
+        <v>0.7865217812572668</v>
       </c>
     </row>
     <row r="3">
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7684445555552705</v>
+        <v>0.7480984621844329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7818820973634837</v>
+        <v>0.7869751928288513</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7826037863448448</v>
+        <v>0.7900477321282493</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7930766155523165</v>
+        <v>0.7926222176295641</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7891550522648083</v>
+        <v>0.7900515329014135</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7926222176295641</v>
+        <v>0.7895462210576325</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7936979136998727</v>
+        <v>0.7905634269092424</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7859260340585943</v>
+        <v>0.7839863979484837</v>
       </c>
     </row>
     <row r="4">
@@ -544,28 +544,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8705563093622795</v>
+        <v>0.8795115332428767</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9367254635911353</v>
+        <v>0.9548168249660787</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9516960651289009</v>
+        <v>0.9578018995929444</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9789235639981909</v>
+        <v>0.9758932609678878</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9789235639981909</v>
+        <v>0.9728629579375848</v>
       </c>
       <c r="G4" t="n">
+        <v>0.9698326549072818</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.9758932609678878</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.9698778833107191</v>
-      </c>
       <c r="I4" t="n">
-        <v>0.9517994443367578</v>
+        <v>0.9552303417975059</v>
       </c>
     </row>
     <row r="5">
@@ -575,28 +575,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8160592958990062</v>
+        <v>0.80775082007568</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8521126512484424</v>
+        <v>0.8627356571747751</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8584121281244549</v>
+        <v>0.8655315142563464</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8761672285569532</v>
+        <v>0.8746346615071448</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8737911726404317</v>
+        <v>0.8719208548033887</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8746346615071448</v>
+        <v>0.8703308679176368</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8728331804841872</v>
+        <v>0.8734468706151187</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8605729026372314</v>
+        <v>0.8609073209071557</v>
       </c>
     </row>
   </sheetData>
